--- a/r4-ELGA-IV-Diabetes-main/StructureDefinition-DiagnosticResults-ips.xlsx
+++ b/r4-ELGA-IV-Diabetes-main/StructureDefinition-DiagnosticResults-ips.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T08:13:49+00:00</t>
+    <t>2024-05-27T08:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Diabetes-main/StructureDefinition-DiagnosticResults-ips.xlsx
+++ b/r4-ELGA-IV-Diabetes-main/StructureDefinition-DiagnosticResults-ips.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T08:36:43+00:00</t>
+    <t>2024-05-27T13:53:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Diabetes-main/StructureDefinition-DiagnosticResults-ips.xlsx
+++ b/r4-ELGA-IV-Diabetes-main/StructureDefinition-DiagnosticResults-ips.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:53:54+00:00</t>
+    <t>2024-05-28T14:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Diabetes-main/StructureDefinition-DiagnosticResults-ips.xlsx
+++ b/r4-ELGA-IV-Diabetes-main/StructureDefinition-DiagnosticResults-ips.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:25:49+00:00</t>
+    <t>2024-05-29T09:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
